--- a/static/riders-list/RIDERS_LIST_FOR_RACE_ID-23-1. závod Českého poháru.xlsx
+++ b/static/riders-list/RIDERS_LIST_FOR_RACE_ID-23-1. závod Českého poháru.xlsx
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Women Under 23</t>
+          <t>Women Elite</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
